--- a/medicine/Psychotrope/Château_de_Libouriac/Château_de_Libouriac.xlsx
+++ b/medicine/Psychotrope/Château_de_Libouriac/Château_de_Libouriac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Libouriac</t>
+          <t>Château_de_Libouriac</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château de Libouriac est un château inscrit au titre des monuments historiques, datant du dernier quart du XIXe siècle. Cet édifice représentatif de l'architecture éclectique est situé route de Pézenas, à Béziers, dans l'Hérault.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Libouriac</t>
+          <t>Château_de_Libouriac</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie Lagarrigue, épouse d'Abel Gaujal, commande à Louis Garros la construction d'un château sur le domaine hérité de son oncle Jean-François Mas.
 L'ancien château, propriété de la famille de Gayon puis de membres de la famille de Dom Bédos de Celles, fut détruit et le domaine complètement reconstruit.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Libouriac</t>
+          <t>Château_de_Libouriac</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ensemble constitué par le château, les façades et toitures des dépendances et bâtiments annexes tels que chapelle, maison des jardiniers, maison du régisseur, château d'eau-pigeonnier, cave viticole, greniers, remises et écuries, le parc, le petit parc et l'allée de pins — le tout cadastré DT 20, 22, 27, 28 — fait l’objet d’une inscription au titre des monuments historiques depuis le 12 décembre 1995[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ensemble constitué par le château, les façades et toitures des dépendances et bâtiments annexes tels que chapelle, maison des jardiniers, maison du régisseur, château d'eau-pigeonnier, cave viticole, greniers, remises et écuries, le parc, le petit parc et l'allée de pins — le tout cadastré DT 20, 22, 27, 28 — fait l’objet d’une inscription au titre des monuments historiques depuis le 12 décembre 1995.
 </t>
         </is>
       </c>
